--- a/output/fit_clients/fit_round_466.xlsx
+++ b/output/fit_clients/fit_round_466.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1768081327.811264</v>
+        <v>2244046540.281837</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1045194271592986</v>
+        <v>0.07040272324639911</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02799572223903001</v>
+        <v>0.04192853993088492</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
         <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>884040628.4216324</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1804175445.503654</v>
+        <v>2309682350.849567</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1301496006180564</v>
+        <v>0.1783382564561398</v>
       </c>
       <c r="G3" t="n">
-        <v>0.044673565276367</v>
+        <v>0.05034634916335473</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>902087732.5047166</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5029847189.967467</v>
+        <v>5165951269.92137</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1215542937584701</v>
+        <v>0.1258781106712475</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0334724811279434</v>
+        <v>0.028984403220115</v>
       </c>
       <c r="H4" t="b">
         <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>168</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2514923682.151335</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3222453990.594203</v>
+        <v>3760265709.620962</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07432030567852628</v>
+        <v>0.06846964718675352</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04480210965891766</v>
+        <v>0.04927383663158488</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>172</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1611227050.483466</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2065412944.051318</v>
+        <v>2484407534.903347</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1048282218219808</v>
+        <v>0.1034136947817212</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04586302841865276</v>
+        <v>0.03515041360973724</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>88</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1032706494.562254</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3040366559.91294</v>
+        <v>2182995423.470355</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09938103472629062</v>
+        <v>0.07003322403579963</v>
       </c>
       <c r="G7" t="n">
-        <v>0.029965966080534</v>
+        <v>0.04330712102104585</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>147</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1520183240.954714</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2788978169.82185</v>
+        <v>3672887457.630123</v>
       </c>
       <c r="F8" t="n">
-        <v>0.193007311370225</v>
+        <v>0.1591024693613421</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02987806276825228</v>
+        <v>0.03272471601790534</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>148</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1394489120.871976</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2053570773.840212</v>
+        <v>1522015736.636635</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1632302369726754</v>
+        <v>0.1307274812348198</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02548326279097455</v>
+        <v>0.02394940915165434</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1026785406.124142</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5539468177.525987</v>
+        <v>3657771257.589604</v>
       </c>
       <c r="F10" t="n">
-        <v>0.155078264504647</v>
+        <v>0.1498980215167782</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04505530521270795</v>
+        <v>0.03456950390407278</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>196</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2769734229.853049</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3480926270.208362</v>
+        <v>4107440006.363397</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1721150056440966</v>
+        <v>0.1555090953257787</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03102813050151912</v>
+        <v>0.04921950489540394</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>193</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1740463111.586683</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2481028506.241472</v>
+        <v>2316913923.76754</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1293564166558943</v>
+        <v>0.1790313727306141</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04662733843257465</v>
+        <v>0.04146034758622875</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>158</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1240514223.616219</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5282222465.862326</v>
+        <v>5166597947.74157</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07771984784238438</v>
+        <v>0.08355341620300467</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0314149328407319</v>
+        <v>0.02402299443339908</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>156</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2641111222.755262</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3882517991.994764</v>
+        <v>3610522802.069559</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1662183413265978</v>
+        <v>0.1847167347646586</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03536639047350201</v>
+        <v>0.04291499956142546</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>150</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1941258966.549255</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1309400080.08983</v>
+        <v>1566255986.690788</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09147716240176609</v>
+        <v>0.06817960489940041</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04512721002174753</v>
+        <v>0.04292566832581689</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>654700082.3519139</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2325949424.68889</v>
+        <v>2101144297.091618</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1119911351387519</v>
+        <v>0.08740949603716189</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03909056824896588</v>
+        <v>0.0363607413324719</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>96</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1162974758.728142</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4109915372.777804</v>
+        <v>4080125598.850881</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1084286904914707</v>
+        <v>0.1451867291113064</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0447887484081682</v>
+        <v>0.0449228803779833</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>137</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2054957715.566615</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2614799669.672399</v>
+        <v>3085065661.573863</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1234177668123358</v>
+        <v>0.1208418640477956</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03277118518011826</v>
+        <v>0.02486996997888666</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>153</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1307399892.966558</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1312668392.217949</v>
+        <v>892844966.1124119</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1589203823735132</v>
+        <v>0.1800659203351788</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0171610765696761</v>
+        <v>0.0172669673661385</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>656334301.4527223</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2125999554.266364</v>
+        <v>2759097268.751958</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1557403282404426</v>
+        <v>0.142726058195993</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03009835583000199</v>
+        <v>0.02438362923691543</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>65</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1062999790.077444</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2093946787.650011</v>
+        <v>1672159908.723135</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1015390099066665</v>
+        <v>0.08635825387578422</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03397202889559674</v>
+        <v>0.03519303152126209</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>36</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1046973420.821263</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3348599752.710537</v>
+        <v>3051828519.368315</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1414500149549135</v>
+        <v>0.1084818158790982</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04697208709734633</v>
+        <v>0.0500061872069851</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>130</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1674299917.03361</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1330515781.614218</v>
+        <v>1318369815.554928</v>
       </c>
       <c r="F23" t="n">
-        <v>0.174876331526768</v>
+        <v>0.1186241514444978</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03714204318659208</v>
+        <v>0.03637749582668705</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>665257905.3413752</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2895089058.001552</v>
+        <v>3876584605.510884</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09068470005691466</v>
+        <v>0.1079219658360859</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02469180386183441</v>
+        <v>0.03490771757274563</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>136</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1447544571.312073</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1159797751.270029</v>
+        <v>1107404658.461682</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1044228672900396</v>
+        <v>0.09332800088459917</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02557073075235309</v>
+        <v>0.02940901926304451</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>579898902.8659866</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>893063722.2092395</v>
+        <v>1151906334.722592</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09869249709472309</v>
+        <v>0.1164652923786126</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02886867286644587</v>
+        <v>0.03784844946802094</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>446531807.010028</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3983811744.351776</v>
+        <v>4307818135.681888</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1568660292037</v>
+        <v>0.1226765748047224</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02267891150195649</v>
+        <v>0.02263168374629963</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>111</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1991905883.133461</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3222737679.641191</v>
+        <v>3273137780.035206</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1156901860907403</v>
+        <v>0.1221500803413625</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03872687337380092</v>
+        <v>0.03618589505184747</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>151</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1611368870.429893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5876146666.465755</v>
+        <v>4543103125.558288</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1263511883929305</v>
+        <v>0.1395062407088645</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03471749583688614</v>
+        <v>0.04083233179975396</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>206</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2938073220.079561</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2162170269.723403</v>
+        <v>2188981132.629755</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1045766202278127</v>
+        <v>0.09647096897706707</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03648890193321281</v>
+        <v>0.03919540969153761</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1081085190.786548</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1233779861.659074</v>
+        <v>1444262070.153934</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07019249386650844</v>
+        <v>0.07644689325079469</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03739611307229442</v>
+        <v>0.04569570981480273</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>616889874.3653197</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1154640756.343101</v>
+        <v>1648106286.702457</v>
       </c>
       <c r="F32" t="n">
-        <v>0.11168648763774</v>
+        <v>0.1011129872250726</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02849298478955225</v>
+        <v>0.02851922253593612</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>577320375.0201868</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3047782608.054471</v>
+        <v>2055671528.483878</v>
       </c>
       <c r="F33" t="n">
-        <v>0.18027651722563</v>
+        <v>0.2062971362450259</v>
       </c>
       <c r="G33" t="n">
-        <v>0.06066213209701403</v>
+        <v>0.03795055496582458</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>143</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1523891295.629689</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1556545336.48871</v>
+        <v>1133187013.840453</v>
       </c>
       <c r="F34" t="n">
-        <v>0.114491489316648</v>
+        <v>0.1203963675082152</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02818680567002726</v>
+        <v>0.02275473021645148</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>778272614.8323308</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1262435851.231804</v>
+        <v>1168804724.114867</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1115409494478807</v>
+        <v>0.09357477907600918</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03578390811628017</v>
+        <v>0.02783401878657326</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>631217886.666692</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2364360305.871187</v>
+        <v>2170455868.245488</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1532438815200485</v>
+        <v>0.1423046633552826</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02463532306020616</v>
+        <v>0.02579505107747835</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>117</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1182180185.810711</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2616253095.772551</v>
+        <v>1819291157.960508</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1030887285762819</v>
+        <v>0.07844256956782319</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03700403591548159</v>
+        <v>0.03722170935671093</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>125</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1308126659.941354</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1337320584.635693</v>
+        <v>2083219442.065858</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1069725480872106</v>
+        <v>0.1131649228327976</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03413490158150919</v>
+        <v>0.02618943015507448</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>668660364.5715998</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1609136789.897333</v>
+        <v>1885775550.275681</v>
       </c>
       <c r="F39" t="n">
-        <v>0.124198763838369</v>
+        <v>0.1542188860116364</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02859428693084503</v>
+        <v>0.02111332363181245</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>804568448.8699844</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1458431266.086404</v>
+        <v>1451446655.665995</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1323687910080407</v>
+        <v>0.1368931371339462</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05805124541171362</v>
+        <v>0.03993459547405064</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>729215609.6735542</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2057214117.728514</v>
+        <v>1898340838.355584</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1608626910464101</v>
+        <v>0.132566446627047</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03073333377154767</v>
+        <v>0.04508309764464282</v>
       </c>
       <c r="H41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>113</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1028607127.48702</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4204797597.711591</v>
+        <v>3339380897.293552</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08608309173717071</v>
+        <v>0.09012322174764835</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03701227231002566</v>
+        <v>0.02867714328923184</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>151</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2102398842.248227</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2934925188.390053</v>
+        <v>2997593702.420111</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1976613707841583</v>
+        <v>0.171740909278904</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02106546117023833</v>
+        <v>0.01837495601731667</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>162</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1467462599.126511</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2182290799.916583</v>
+        <v>2254894082.790442</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06669339171035588</v>
+        <v>0.0697759827731998</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02414867197350477</v>
+        <v>0.02833352661807438</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1091145542.676596</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1738611762.951359</v>
+        <v>2147005078.415351</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1880015470313352</v>
+        <v>0.1907191587412958</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05292440638282508</v>
+        <v>0.03594204239183128</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>869305846.0577607</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4376181339.803036</v>
+        <v>5558824809.638479</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1406537702123795</v>
+        <v>0.1474702907093253</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06071745345831372</v>
+        <v>0.04611288073056436</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>166</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2188090661.032759</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5182485719.748752</v>
+        <v>3356390668.788949</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1861764060480354</v>
+        <v>0.1986709041924218</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04149835440553035</v>
+        <v>0.04779878224856763</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>126</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2591242926.025648</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2943636685.990829</v>
+        <v>4188614159.882634</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1042488428700139</v>
+        <v>0.1061706563109787</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02643289624469448</v>
+        <v>0.02907834231017228</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>151</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1471818438.759493</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1496762846.841274</v>
+        <v>1797764238.157797</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1612810248870394</v>
+        <v>0.1364899221822639</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03811922370780624</v>
+        <v>0.04452204537738902</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>748381455.9801917</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3667312624.556292</v>
+        <v>2704931199.426128</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1221193843307038</v>
+        <v>0.1229531658086949</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04040541542041715</v>
+        <v>0.03546995376419177</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>159</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1833656324.641565</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1363200871.51202</v>
+        <v>1382152313.06162</v>
       </c>
       <c r="F51" t="n">
-        <v>0.146044415780157</v>
+        <v>0.1356992802789551</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04699889973334051</v>
+        <v>0.03699528406819783</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>681600460.8829148</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4979008905.998721</v>
+        <v>4076079368.799011</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1368008470730859</v>
+        <v>0.1053599191696908</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04436421026311616</v>
+        <v>0.05336548512651133</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>192</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2489504451.881107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2710880707.798973</v>
+        <v>3135291853.40072</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1333163438920565</v>
+        <v>0.1874505931143579</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03540257356238679</v>
+        <v>0.03560544071341669</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>134</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1355440406.335202</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3175109082.99415</v>
+        <v>4188131298.951406</v>
       </c>
       <c r="F54" t="n">
-        <v>0.138431588333021</v>
+        <v>0.1399926623148948</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04287026640093811</v>
+        <v>0.03670843097784532</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>152</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1587554540.809118</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3256712002.230552</v>
+        <v>3797749345.811346</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1560062433582505</v>
+        <v>0.2162664123659084</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02078434114718498</v>
+        <v>0.02736308389457764</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>134</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1628355943.272118</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1571915018.227748</v>
+        <v>1294824090.38913</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1100124314726001</v>
+        <v>0.1338767861336428</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05132294134079809</v>
+        <v>0.04195339734110781</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>785957540.7096891</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3100784831.445558</v>
+        <v>3156211877.164454</v>
       </c>
       <c r="F57" t="n">
-        <v>0.128496146353023</v>
+        <v>0.1244119476428579</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02473810912842184</v>
+        <v>0.01788317224041904</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>148</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1550392428.610282</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1171301097.631842</v>
+        <v>1757303016.075899</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1813047797174752</v>
+        <v>0.1480969599284789</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03387666596289821</v>
+        <v>0.02538678896570215</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>585650609.9565122</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4130139200.41329</v>
+        <v>4814162078.039786</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1294847947964423</v>
+        <v>0.1200600704983797</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04293729885033787</v>
+        <v>0.03135356484397624</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>127</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2065069569.882005</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3005962318.332798</v>
+        <v>2901845455.204302</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1626183663999964</v>
+        <v>0.1829248551636521</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02596390230650422</v>
+        <v>0.02931556633570416</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>144</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1502981230.161875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2259877922.02152</v>
+        <v>3179350062.53739</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1148602248768644</v>
+        <v>0.160359660217375</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02191739058103909</v>
+        <v>0.03244496564121554</v>
       </c>
       <c r="H61" t="b">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>159</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1129939011.296474</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1798598560.319234</v>
+        <v>1648836490.508263</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1561997032859053</v>
+        <v>0.1343265500165395</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03318747956093874</v>
+        <v>0.03927946350297416</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>899299308.0451529</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3390257511.779319</v>
+        <v>5352609036.867955</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09694673005877756</v>
+        <v>0.09666788209453345</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03728504235761437</v>
+        <v>0.03606210187918933</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>134</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1695128845.527529</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3490297646.994128</v>
+        <v>5015133836.108858</v>
       </c>
       <c r="F64" t="n">
-        <v>0.153760425752741</v>
+        <v>0.1302482598279192</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03226235690762607</v>
+        <v>0.02906131805896602</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>145</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1745148823.517855</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5401572052.046104</v>
+        <v>5713088293.948049</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1396161011888201</v>
+        <v>0.1486441270849836</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02761537453225445</v>
+        <v>0.03198463099875926</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>167</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2700785960.988172</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3506137154.776176</v>
+        <v>3917456274.778021</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1193030389573263</v>
+        <v>0.1260063215067544</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03221680279136798</v>
+        <v>0.04201964765645875</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>136</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1753068524.573351</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2595836594.956817</v>
+        <v>2495659123.186391</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08610430522430014</v>
+        <v>0.07622727880428067</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03545771450381981</v>
+        <v>0.04465603804244195</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>149</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1297918349.951898</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5255805931.069201</v>
+        <v>5870194786.933676</v>
       </c>
       <c r="F68" t="n">
-        <v>0.09831349648586873</v>
+        <v>0.1069643943753225</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04500039832709467</v>
+        <v>0.04647412830928162</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>148</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2627903037.4492</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2163824439.659419</v>
+        <v>1899795039.899782</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1437565865316088</v>
+        <v>0.1403218693008191</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04990115593679561</v>
+        <v>0.04659671608274391</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1081912245.987997</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3658285368.832449</v>
+        <v>2927877646.92152</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07067883615059153</v>
+        <v>0.1029487631431426</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0392762704278674</v>
+        <v>0.03467841664784773</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>134</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1829142704.276413</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4519684213.713788</v>
+        <v>3857007293.796952</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1821434435426983</v>
+        <v>0.1233664344396675</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02461813750531838</v>
+        <v>0.0211703871891934</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>169</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2259842176.761383</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1396369617.039895</v>
+        <v>2001347167.799064</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09309205834029681</v>
+        <v>0.09992996274674484</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03685381520402298</v>
+        <v>0.04892757723836035</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>698184852.2480237</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2954846681.987498</v>
+        <v>2948266084.396127</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09876049345462666</v>
+        <v>0.09373672996859557</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04932829454017186</v>
+        <v>0.04001438873756406</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>176</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1477423341.127162</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3200030561.962976</v>
+        <v>2629118674.110397</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1818429596493354</v>
+        <v>0.1396302028802914</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03468617553145474</v>
+        <v>0.02874101166603002</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>159</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1600015329.130583</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1953335076.999763</v>
+        <v>1892077366.668871</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1405539053684638</v>
+        <v>0.1524547684460639</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0233111377734088</v>
+        <v>0.02444762984076412</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>976667507.0299056</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3340296824.660967</v>
+        <v>5160015127.117403</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08913676405355775</v>
+        <v>0.07844298497556751</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02833668224294564</v>
+        <v>0.02971020240738379</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>109</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1670148369.406872</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2163769271.546888</v>
+        <v>2233342255.077554</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1368533107592572</v>
+        <v>0.1679725052087556</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02550165908199667</v>
+        <v>0.0262869213716937</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1081884721.48304</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3879043175.365184</v>
+        <v>3743974051.220901</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1093943991795916</v>
+        <v>0.1337467290800037</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04153669675815011</v>
+        <v>0.04656879757265215</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>162</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1939521562.095061</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1532277097.434775</v>
+        <v>1765156459.303782</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1720824769362675</v>
+        <v>0.1629029568862786</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03938023179201412</v>
+        <v>0.03937626377223815</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>766138588.5892082</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4122613308.625636</v>
+        <v>5599751916.253684</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0745990549915366</v>
+        <v>0.06975526741617072</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0277543235961377</v>
+        <v>0.0271731289788813</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>105</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2061306659.890121</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4150020988.551699</v>
+        <v>4554005333.253367</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08351972410200524</v>
+        <v>0.1019434880480838</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02644228516556045</v>
+        <v>0.02938502273571716</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>110</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2075010463.086407</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4804928960.128042</v>
+        <v>5446823942.894464</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1665467320483755</v>
+        <v>0.1964399515359276</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02158858872793396</v>
+        <v>0.01822979269556805</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>163</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2402464474.93273</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1925460756.370761</v>
+        <v>1883961409.694205</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1255233736795982</v>
+        <v>0.130226822083941</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04145878299613176</v>
+        <v>0.03927167582652952</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>962730354.2579831</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2391333635.772256</v>
+        <v>1657022297.503897</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1101281426551735</v>
+        <v>0.09395809731112534</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03360499140034141</v>
+        <v>0.03190077272150774</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>7</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1195666765.577438</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3033650106.051884</v>
+        <v>2942865487.611873</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1837903202949656</v>
+        <v>0.1746884414740477</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05561264135320844</v>
+        <v>0.04737931596915847</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>173</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1516825116.892823</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1814101253.73753</v>
+        <v>1689612178.452772</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1280192212089153</v>
+        <v>0.1340002543388284</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01732879337144074</v>
+        <v>0.02014758772168927</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>59</v>
-      </c>
-      <c r="J86" t="n">
-        <v>907050628.6644874</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1430335506.223517</v>
+        <v>1031300598.014538</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1652701007907955</v>
+        <v>0.1570708705036546</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03993780698379751</v>
+        <v>0.02932111952427118</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>715167867.7535312</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3423719239.262082</v>
+        <v>2779156148.669108</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1108701771772508</v>
+        <v>0.160454441051142</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0297004842555745</v>
+        <v>0.02595815705981127</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>185</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1711859691.968224</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2936875770.18235</v>
+        <v>2855428403.745263</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1391436344793499</v>
+        <v>0.1463355061637334</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02829802052772106</v>
+        <v>0.02791800170528197</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>158</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1468437927.849008</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2108819158.21542</v>
+        <v>2104092843.833558</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1081755009015719</v>
+        <v>0.1043270859115317</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0481266997706255</v>
+        <v>0.05217768904971101</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1054409669.27214</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1375422565.747576</v>
+        <v>2018950634.52764</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1864269959747728</v>
+        <v>0.1392599003687063</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04575252863361911</v>
+        <v>0.04809212811968554</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>687711338.3987472</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2006954357.137142</v>
+        <v>2334998251.04636</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07092492254261461</v>
+        <v>0.09668299066220111</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0440463832968617</v>
+        <v>0.03944152655607654</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>128</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1003477125.281333</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4443314697.010469</v>
+        <v>3553512374.943889</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1380926232410326</v>
+        <v>0.1290014571112114</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05225717450028961</v>
+        <v>0.04659912229748123</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>140</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2221657320.487509</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2416586125.609175</v>
+        <v>2477005748.202596</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1123088925092572</v>
+        <v>0.15937859693542</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03455827925503634</v>
+        <v>0.04259815897172593</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>3</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1208293115.382435</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3056602913.381647</v>
+        <v>2736474851.088362</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1237958636145534</v>
+        <v>0.106906103337882</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0437461178021021</v>
+        <v>0.03769254110237256</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>113</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1528301452.357824</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1592518297.827623</v>
+        <v>1985565997.405025</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08820151591424287</v>
+        <v>0.09477778379252176</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02989776582457989</v>
+        <v>0.03753610104537076</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>796259179.4293224</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3441544711.228275</v>
+        <v>4933869798.339158</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1202469377023667</v>
+        <v>0.1383359937891674</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02245214768751703</v>
+        <v>0.02776222899865475</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>149</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1720772367.097398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3886526498.919896</v>
+        <v>3179873441.580029</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1029020031741549</v>
+        <v>0.1228784557255829</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0269078101193795</v>
+        <v>0.02729422656749202</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>126</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1943263294.284707</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2484099518.97692</v>
+        <v>2340746396.496604</v>
       </c>
       <c r="F99" t="n">
-        <v>0.08999500475252944</v>
+        <v>0.09145975720127457</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02857008749455098</v>
+        <v>0.03503551785710685</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>146</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1242049708.088779</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>2915565224.280073</v>
+        <v>4033183514.408454</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1592935414962263</v>
+        <v>0.110786368412029</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02511981243628323</v>
+        <v>0.01763040265538814</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>142</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1457782596.249268</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2483414162.619969</v>
+        <v>3506511674.963181</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1639005084763138</v>
+        <v>0.1508542569437934</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03897223977883416</v>
+        <v>0.03969457104641218</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>192</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1241707102.161762</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_466.xlsx
+++ b/output/fit_clients/fit_round_466.xlsx
@@ -480,22 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2244046540.281837</v>
+        <v>2021707665.46564</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07040272324639911</v>
+        <v>0.08337904436397404</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04192853993088492</v>
+        <v>0.03324758408457573</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2309682350.849567</v>
+        <v>2280128824.287531</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1783382564561398</v>
+        <v>0.120344251707368</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05034634916335473</v>
+        <v>0.04638804837218292</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5165951269.92137</v>
+        <v>3385317729.468197</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1258781106712475</v>
+        <v>0.1121581518059423</v>
       </c>
       <c r="G4" t="n">
-        <v>0.028984403220115</v>
+        <v>0.02504526047531691</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3760265709.620962</v>
+        <v>3101213135.593129</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06846964718675352</v>
+        <v>0.07140187430614785</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04927383663158488</v>
+        <v>0.03320959363252574</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2484407534.903347</v>
+        <v>2418994949.897634</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1034136947817212</v>
+        <v>0.1438839214793305</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03515041360973724</v>
+        <v>0.03697297011431705</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2182995423.470355</v>
+        <v>2764572475.879443</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07003322403579963</v>
+        <v>0.07032463165433567</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04330712102104585</v>
+        <v>0.030402177339738</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3672887457.630123</v>
+        <v>3751824308.152229</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1591024693613421</v>
+        <v>0.1456501038860409</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03272471601790534</v>
+        <v>0.03199129828716174</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1522015736.636635</v>
+        <v>1934401667.30488</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1307274812348198</v>
+        <v>0.1450864751749478</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02394940915165434</v>
+        <v>0.03726893707899556</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -710,13 +710,13 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3657771257.589604</v>
+        <v>3863801644.122947</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1498980215167782</v>
+        <v>0.2107876817901894</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03456950390407278</v>
+        <v>0.03756991107460539</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4107440006.363397</v>
+        <v>3577353310.278268</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1555090953257787</v>
+        <v>0.1484794843422768</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04921950489540394</v>
+        <v>0.04193417261208346</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2316913923.76754</v>
+        <v>3250634716.064917</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1790313727306141</v>
+        <v>0.1934620964261486</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04146034758622875</v>
+        <v>0.04534401872999415</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5166597947.74157</v>
+        <v>4081150899.2231</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08355341620300467</v>
+        <v>0.100707606666749</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02402299443339908</v>
+        <v>0.02436532231603988</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -822,13 +822,13 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3610522802.069559</v>
+        <v>3273295096.602259</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1847167347646586</v>
+        <v>0.1817185859888814</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04291499956142546</v>
+        <v>0.03075659746263657</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1566255986.690788</v>
+        <v>1621261012.162815</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06817960489940041</v>
+        <v>0.07721296954420161</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04292566832581689</v>
+        <v>0.04037528069607751</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2101144297.091618</v>
+        <v>2434612954.496413</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08740949603716189</v>
+        <v>0.09807777480880421</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0363607413324719</v>
+        <v>0.04892234684455658</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4080125598.850881</v>
+        <v>3409615559.077817</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1451867291113064</v>
+        <v>0.1699245928678942</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0449228803779833</v>
+        <v>0.04737362108002088</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,22 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3085065661.573863</v>
+        <v>3195862814.4616</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1208418640477956</v>
+        <v>0.1813987939182837</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02486996997888666</v>
+        <v>0.02171585506180033</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>892844966.1124119</v>
+        <v>1366542651.391525</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1800659203351788</v>
+        <v>0.1261190827793429</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0172669673661385</v>
+        <v>0.02132534242758173</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2759097268.751958</v>
+        <v>2083540129.360711</v>
       </c>
       <c r="F20" t="n">
-        <v>0.142726058195993</v>
+        <v>0.1296941016357461</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02438362923691543</v>
+        <v>0.0256864712472603</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1672159908.723135</v>
+        <v>2049984348.978913</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08635825387578422</v>
+        <v>0.07370425906756879</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03519303152126209</v>
+        <v>0.0305055759841363</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3051828519.368315</v>
+        <v>2609128338.854125</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1084818158790982</v>
+        <v>0.1407061427171163</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0500061872069851</v>
+        <v>0.04755904441611601</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1318369815.554928</v>
+        <v>1418982464.005344</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1186241514444978</v>
+        <v>0.1727290388328656</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03637749582668705</v>
+        <v>0.0511896578570841</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3876584605.510884</v>
+        <v>3651922378.642612</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1079219658360859</v>
+        <v>0.1458195278124369</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03490771757274563</v>
+        <v>0.02479429961892511</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1107404658.461682</v>
+        <v>1011215770.04372</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09332800088459917</v>
+        <v>0.07676121353794002</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02940901926304451</v>
+        <v>0.02615872321066919</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1151906334.722592</v>
+        <v>960654694.5778555</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1164652923786126</v>
+        <v>0.1069011295063914</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03784844946802094</v>
+        <v>0.03352849696984015</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4307818135.681888</v>
+        <v>4263927126.470942</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1226765748047224</v>
+        <v>0.09573931824533805</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02263168374629963</v>
+        <v>0.0170782709362457</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3273137780.035206</v>
+        <v>2779756421.197152</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1221500803413625</v>
+        <v>0.1005143327714086</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03618589505184747</v>
+        <v>0.04769032297422063</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4543103125.558288</v>
+        <v>4903818043.762613</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1395062407088645</v>
+        <v>0.1242475921493818</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04083233179975396</v>
+        <v>0.03310101611791479</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2188981132.629755</v>
+        <v>1886740573.0437</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09647096897706707</v>
+        <v>0.1092556943807921</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03919540969153761</v>
+        <v>0.03676011563591011</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1444262070.153934</v>
+        <v>1363756929.371946</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07644689325079469</v>
+        <v>0.1090205054840014</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04569570981480273</v>
+        <v>0.04737299333966898</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1648106286.702457</v>
+        <v>1528137631.445624</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1011129872250726</v>
+        <v>0.1110697084962458</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02851922253593612</v>
+        <v>0.0296229496461331</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2055671528.483878</v>
+        <v>2769922115.204639</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2062971362450259</v>
+        <v>0.1922334399945486</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03795055496582458</v>
+        <v>0.05211265367386764</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1133187013.840453</v>
+        <v>1562037573.341552</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1203963675082152</v>
+        <v>0.1080675881502619</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02275473021645148</v>
+        <v>0.02436937973276319</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,16 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1168804724.114867</v>
+        <v>1206244277.930288</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09357477907600918</v>
+        <v>0.07942652140653284</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02783401878657326</v>
+        <v>0.03395966183599973</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2170455868.245488</v>
+        <v>2479581744.164064</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1423046633552826</v>
+        <v>0.1169254608495886</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02579505107747835</v>
+        <v>0.02847137125469369</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1819291157.960508</v>
+        <v>1825067832.445025</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07844256956782319</v>
+        <v>0.08466357499042919</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03722170935671093</v>
+        <v>0.02752887633025219</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2083219442.065858</v>
+        <v>2187979258.324568</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1131649228327976</v>
+        <v>0.1021744587083893</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02618943015507448</v>
+        <v>0.03926698586543391</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1885775550.275681</v>
+        <v>1815306977.597296</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1542188860116364</v>
+        <v>0.1943016481820866</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02111332363181245</v>
+        <v>0.02793935688309158</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1451446655.665995</v>
+        <v>1243727208.168513</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1368931371339462</v>
+        <v>0.1031206296241401</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03993459547405064</v>
+        <v>0.04254864050889536</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,22 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1898340838.355584</v>
+        <v>2918787072.145105</v>
       </c>
       <c r="F41" t="n">
-        <v>0.132566446627047</v>
+        <v>0.1627188379257122</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04508309764464282</v>
+        <v>0.03542533723170904</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3339380897.293552</v>
+        <v>3063923428.338636</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09012322174764835</v>
+        <v>0.1042352365037191</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02867714328923184</v>
+        <v>0.04334558450172651</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2997593702.420111</v>
+        <v>2542886004.591205</v>
       </c>
       <c r="F43" t="n">
-        <v>0.171740909278904</v>
+        <v>0.1799541778682349</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01837495601731667</v>
+        <v>0.01874515792447743</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2254894082.790442</v>
+        <v>1786540845.020032</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0697759827731998</v>
+        <v>0.1009719725276366</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02833352661807438</v>
+        <v>0.03535247525427353</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2147005078.415351</v>
+        <v>1730659139.513294</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1907191587412958</v>
+        <v>0.1853435270395657</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03594204239183128</v>
+        <v>0.0371605035631423</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5558824809.638479</v>
+        <v>3815670283.014588</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1474702907093253</v>
+        <v>0.1521750934017541</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04611288073056436</v>
+        <v>0.05273209334752797</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3356390668.788949</v>
+        <v>4109865235.567252</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1986709041924218</v>
+        <v>0.1321477307751264</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04779878224856763</v>
+        <v>0.05905755424702568</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4188614159.882634</v>
+        <v>3339187282.870857</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1061706563109787</v>
+        <v>0.102361994604426</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02907834231017228</v>
+        <v>0.03800595675626389</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1797764238.157797</v>
+        <v>1886466729.215479</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1364899221822639</v>
+        <v>0.1723821924656864</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04452204537738902</v>
+        <v>0.03401658804953198</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1830,16 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2704931199.426128</v>
+        <v>3219159602.137966</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1229531658086949</v>
+        <v>0.1422506542986164</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03546995376419177</v>
+        <v>0.04640472787128493</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1858,13 +1858,13 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1382152313.06162</v>
+        <v>1348056876.667178</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1356992802789551</v>
+        <v>0.1336877811085986</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03699528406819783</v>
+        <v>0.03516803023191416</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4076079368.799011</v>
+        <v>4421208295.797958</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1053599191696908</v>
+        <v>0.1154885427938242</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05336548512651133</v>
+        <v>0.03971969516339163</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3135291853.40072</v>
+        <v>3561042474.930019</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1874505931143579</v>
+        <v>0.1659937331310591</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03560544071341669</v>
+        <v>0.03243622509052777</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,16 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4188131298.951406</v>
+        <v>4537900410.201798</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1399926623148948</v>
+        <v>0.1546075913174452</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03670843097784532</v>
+        <v>0.03313871956012062</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3797749345.811346</v>
+        <v>4321105337.524553</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2162664123659084</v>
+        <v>0.1596407772939138</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02736308389457764</v>
+        <v>0.02540927112719022</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,16 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1294824090.38913</v>
+        <v>1805615742.004594</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1338767861336428</v>
+        <v>0.1434455621720967</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04195339734110781</v>
+        <v>0.03903709742464539</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3156211877.164454</v>
+        <v>3324055322.67957</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1244119476428579</v>
+        <v>0.1266152512602599</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01788317224041904</v>
+        <v>0.02323067357947235</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1757303016.075899</v>
+        <v>1709426524.481189</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1480969599284789</v>
+        <v>0.2021151636274991</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02538678896570215</v>
+        <v>0.0357665349715926</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4814162078.039786</v>
+        <v>4719308655.558134</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1200600704983797</v>
+        <v>0.08887634029761896</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03135356484397624</v>
+        <v>0.03226876004337864</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2901845455.204302</v>
+        <v>3424628511.893324</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1829248551636521</v>
+        <v>0.1425769701011042</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02931556633570416</v>
+        <v>0.03027704719024383</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3179350062.53739</v>
+        <v>2810238822.771538</v>
       </c>
       <c r="F61" t="n">
-        <v>0.160359660217375</v>
+        <v>0.1193533743527564</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03244496564121554</v>
+        <v>0.02895111219734251</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1648836490.508263</v>
+        <v>1948979352.635612</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1343265500165395</v>
+        <v>0.1571785202168799</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03927946350297416</v>
+        <v>0.04363164472498101</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5352609036.867955</v>
+        <v>4476763645.758155</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09666788209453345</v>
+        <v>0.09919233044036568</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03606210187918933</v>
+        <v>0.04085489516642068</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5015133836.108858</v>
+        <v>4997894374.68819</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1302482598279192</v>
+        <v>0.1790101771169316</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02906131805896602</v>
+        <v>0.03246082177324068</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5713088293.948049</v>
+        <v>4826892731.072907</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1486441270849836</v>
+        <v>0.1235598614942597</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03198463099875926</v>
+        <v>0.02105353960515238</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3917456274.778021</v>
+        <v>5337842530.357076</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1260063215067544</v>
+        <v>0.1499922960969154</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04201964765645875</v>
+        <v>0.047194723025486</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2495659123.186391</v>
+        <v>3468413430.471138</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07622727880428067</v>
+        <v>0.09900747795031085</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04465603804244195</v>
+        <v>0.04320247099043587</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5870194786.933676</v>
+        <v>6074848094.511662</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1069643943753225</v>
+        <v>0.1043570881790698</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04647412830928162</v>
+        <v>0.05045441324898386</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1899795039.899782</v>
+        <v>1814863496.192846</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1403218693008191</v>
+        <v>0.1662035632149573</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04659671608274391</v>
+        <v>0.05540029641900828</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2927877646.92152</v>
+        <v>2429460691.860149</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1029487631431426</v>
+        <v>0.08541531964048689</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03467841664784773</v>
+        <v>0.04365237092494474</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3857007293.796952</v>
+        <v>4582221115.863786</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1233664344396675</v>
+        <v>0.1547240007608713</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0211703871891934</v>
+        <v>0.02777989606791233</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2001347167.799064</v>
+        <v>2086322568.760256</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09992996274674484</v>
+        <v>0.08467906321598642</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04892757723836035</v>
+        <v>0.03239019087296616</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2948266084.396127</v>
+        <v>3276761983.321544</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09373672996859557</v>
+        <v>0.08914754506075616</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04001438873756406</v>
+        <v>0.04956513932986425</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2629118674.110397</v>
+        <v>3770420684.160671</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1396302028802914</v>
+        <v>0.1225024292341342</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02874101166603002</v>
+        <v>0.02643403524116863</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1892077366.668871</v>
+        <v>2136138963.08509</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1524547684460639</v>
+        <v>0.1073914541344808</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02444762984076412</v>
+        <v>0.02445870246711056</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5160015127.117403</v>
+        <v>4270132840.970179</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07844298497556751</v>
+        <v>0.1125105002677252</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02971020240738379</v>
+        <v>0.03408807095682644</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2233342255.077554</v>
+        <v>2150929671.996437</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1679725052087556</v>
+        <v>0.1583004215362987</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0262869213716937</v>
+        <v>0.02798503019173651</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3743974051.220901</v>
+        <v>3845832274.658758</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1337467290800037</v>
+        <v>0.1064073814949406</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04656879757265215</v>
+        <v>0.04011673267380899</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1765156459.303782</v>
+        <v>1695534138.075682</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1629029568862786</v>
+        <v>0.1378204785634962</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03937626377223815</v>
+        <v>0.02817202113923182</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5599751916.253684</v>
+        <v>3967893224.726708</v>
       </c>
       <c r="F80" t="n">
-        <v>0.06975526741617072</v>
+        <v>0.08856123333909371</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0271731289788813</v>
+        <v>0.02414216899117782</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4554005333.253367</v>
+        <v>3246849230.207785</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1019434880480838</v>
+        <v>0.0913710321380799</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02938502273571716</v>
+        <v>0.03036342820900272</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,22 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5446823942.894464</v>
+        <v>3556141369.524608</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1964399515359276</v>
+        <v>0.1509563437749447</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01822979269556805</v>
+        <v>0.02337753585169074</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1883961409.694205</v>
+        <v>1782418931.243798</v>
       </c>
       <c r="F83" t="n">
-        <v>0.130226822083941</v>
+        <v>0.1354225970292645</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03927167582652952</v>
+        <v>0.03071547071476619</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1657022297.503897</v>
+        <v>2292548990.94506</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09395809731112534</v>
+        <v>0.08903805256028302</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03190077272150774</v>
+        <v>0.04686154865704634</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2942865487.611873</v>
+        <v>2650698030.386288</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1746884414740477</v>
+        <v>0.1542682276117113</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04737931596915847</v>
+        <v>0.04129055685452324</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1689612178.452772</v>
+        <v>2783216045.277287</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1340002543388284</v>
+        <v>0.1329162715193647</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02014758772168927</v>
+        <v>0.02429357831751321</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1031300598.014538</v>
+        <v>1068461626.842807</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1570708705036546</v>
+        <v>0.1482509191812957</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02932111952427118</v>
+        <v>0.03531294009675095</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2779156148.669108</v>
+        <v>3313817231.421875</v>
       </c>
       <c r="F88" t="n">
-        <v>0.160454441051142</v>
+        <v>0.1522984485557478</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02595815705981127</v>
+        <v>0.0299151985160481</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2855428403.745263</v>
+        <v>2875631348.015858</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1463355061637334</v>
+        <v>0.1229949160868684</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02791800170528197</v>
+        <v>0.02926618114522766</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,16 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2104092843.833558</v>
+        <v>1900679280.51968</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1043270859115317</v>
+        <v>0.09480839827072246</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05217768904971101</v>
+        <v>0.05556145484375735</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2018950634.52764</v>
+        <v>1701005779.279492</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1392599003687063</v>
+        <v>0.1214800038113509</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04809212811968554</v>
+        <v>0.06181308120110986</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2334998251.04636</v>
+        <v>2938998036.351602</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09668299066220111</v>
+        <v>0.07682833458532375</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03944152655607654</v>
+        <v>0.0372403574713945</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3553512374.943889</v>
+        <v>3157521890.617026</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1290014571112114</v>
+        <v>0.090026396632102</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04659912229748123</v>
+        <v>0.03807575304208718</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2477005748.202596</v>
+        <v>1817731804.398439</v>
       </c>
       <c r="F94" t="n">
-        <v>0.15937859693542</v>
+        <v>0.1495682161474926</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04259815897172593</v>
+        <v>0.04173866946622443</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2736474851.088362</v>
+        <v>2971277822.66082</v>
       </c>
       <c r="F95" t="n">
-        <v>0.106906103337882</v>
+        <v>0.1114394803531867</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03769254110237256</v>
+        <v>0.04980043097606249</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1985565997.405025</v>
+        <v>2349967574.029402</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09477778379252176</v>
+        <v>0.08695354854050914</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03753610104537076</v>
+        <v>0.030669523668689</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4933869798.339158</v>
+        <v>4673192151.354443</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1383359937891674</v>
+        <v>0.1652222841108967</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02776222899865475</v>
+        <v>0.01888529192231419</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3174,13 +3174,13 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3179873441.580029</v>
+        <v>2895506243.50231</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1228784557255829</v>
+        <v>0.0809713066534406</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02729422656749202</v>
+        <v>0.02652698624638299</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,22 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2340746396.496604</v>
+        <v>2985207879.556935</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09145975720127457</v>
+        <v>0.08964156447246871</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03503551785710685</v>
+        <v>0.02749291526739748</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4033183514.408454</v>
+        <v>4058324804.448042</v>
       </c>
       <c r="F100" t="n">
-        <v>0.110786368412029</v>
+        <v>0.1537241932344086</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01763040265538814</v>
+        <v>0.02581258561836654</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3506511674.963181</v>
+        <v>3418019751.85205</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1508542569437934</v>
+        <v>0.1967897330501889</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03969457104641218</v>
+        <v>0.04418168757914515</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_466.xlsx
+++ b/output/fit_clients/fit_round_466.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2021707665.46564</v>
+        <v>1712184998.419234</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08337904436397404</v>
+        <v>0.0960848854436218</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03324758408457573</v>
+        <v>0.02764064338795616</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2280128824.287531</v>
+        <v>2098588481.735311</v>
       </c>
       <c r="F3" t="n">
-        <v>0.120344251707368</v>
+        <v>0.1333942561763878</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04638804837218292</v>
+        <v>0.03808524418723971</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3385317729.468197</v>
+        <v>4460677816.306879</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1121581518059423</v>
+        <v>0.1056766006068473</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02504526047531691</v>
+        <v>0.03809662994036833</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>236</v>
+      </c>
+      <c r="J4" t="n">
+        <v>465</v>
+      </c>
+      <c r="K4" t="n">
+        <v>32.6413635416264</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +602,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3101213135.593129</v>
+        <v>2735102324.336942</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07140187430614785</v>
+        <v>0.07719314663823318</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03320959363252574</v>
+        <v>0.04837961164027111</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>197</v>
+      </c>
+      <c r="J5" t="n">
+        <v>465</v>
+      </c>
+      <c r="K5" t="n">
+        <v>14.50841667467007</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +639,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2418994949.897634</v>
+        <v>1784737322.685718</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1438839214793305</v>
+        <v>0.1053578732643075</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03697297011431705</v>
+        <v>0.05394111158411045</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +674,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2764572475.879443</v>
+        <v>2076103596.691551</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07032463165433567</v>
+        <v>0.1003210578173043</v>
       </c>
       <c r="G7" t="n">
-        <v>0.030402177339738</v>
+        <v>0.03829223051225584</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,17 +715,24 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3751824308.152229</v>
+        <v>3194453921.138787</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1456501038860409</v>
+        <v>0.1634635447247031</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03199129828716174</v>
+        <v>0.02033136437707456</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>132</v>
+      </c>
+      <c r="J8" t="n">
+        <v>464</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1934401667.30488</v>
+        <v>2219241801.847788</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1450864751749478</v>
+        <v>0.1621529713080216</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03726893707899556</v>
+        <v>0.03411145966652505</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,23 +779,30 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3863801644.122947</v>
+        <v>4532976891.932283</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2107876817901894</v>
+        <v>0.1875241101714293</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03756991107460539</v>
+        <v>0.04406912243901924</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>358</v>
+      </c>
+      <c r="J10" t="n">
+        <v>466</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,22 +814,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3577353310.278268</v>
+        <v>3742593038.223171</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1484794843422768</v>
+        <v>0.1219164065554813</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04193417261208346</v>
+        <v>0.04971063129026213</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>194</v>
+      </c>
+      <c r="J11" t="n">
+        <v>465</v>
+      </c>
+      <c r="K11" t="n">
+        <v>27.1671064887039</v>
       </c>
     </row>
     <row r="12">
@@ -766,17 +857,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3250634716.064917</v>
+        <v>2378582125.150198</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1934620964261486</v>
+        <v>0.181565670627749</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04534401872999415</v>
+        <v>0.0495717063652765</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +886,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4081150899.2231</v>
+        <v>4506814155.577392</v>
       </c>
       <c r="F13" t="n">
-        <v>0.100707606666749</v>
+        <v>0.06650517365873131</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02436532231603988</v>
+        <v>0.03030704150947349</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>242</v>
+      </c>
+      <c r="J13" t="n">
+        <v>466</v>
+      </c>
+      <c r="K13" t="n">
+        <v>32.88063134650522</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +923,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3273295096.602259</v>
+        <v>2371646809.746066</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1817185859888814</v>
+        <v>0.1719198039626117</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03075659746263657</v>
+        <v>0.04306482587346881</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>106</v>
+      </c>
+      <c r="J14" t="n">
+        <v>464</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +958,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1621261012.162815</v>
+        <v>1417275589.755623</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07721296954420161</v>
+        <v>0.08942788232886087</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04037528069607751</v>
+        <v>0.03160210600396079</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +999,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2434612954.496413</v>
+        <v>2842433104.36398</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09807777480880421</v>
+        <v>0.0806713723202529</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04892234684455658</v>
+        <v>0.03606713725522492</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,16 +1034,25 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3409615559.077817</v>
+        <v>4416633769.914314</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1699245928678942</v>
+        <v>0.1246154977873258</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04737362108002088</v>
+        <v>0.04892056936446441</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>228</v>
+      </c>
+      <c r="J17" t="n">
+        <v>466</v>
+      </c>
+      <c r="K17" t="n">
+        <v>35.23487999421322</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1065,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3195862814.4616</v>
+        <v>2954852724.151134</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1813987939182837</v>
+        <v>0.1524937448106105</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02171585506180033</v>
+        <v>0.02679332290976177</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>125</v>
+      </c>
+      <c r="J18" t="n">
+        <v>463</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -962,17 +1106,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1366542651.391525</v>
+        <v>1190610641.824961</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1261190827793429</v>
+        <v>0.1261865071975062</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02132534242758173</v>
+        <v>0.02021834719304211</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1141,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2083540129.360711</v>
+        <v>2495880294.546514</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1296941016357461</v>
+        <v>0.131131531806711</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0256864712472603</v>
+        <v>0.02297785874769303</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1176,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2049984348.978913</v>
+        <v>2044466541.241559</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07370425906756879</v>
+        <v>0.06172646863734713</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0305055759841363</v>
+        <v>0.03563669785905751</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1205,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2609128338.854125</v>
+        <v>3110250170.319871</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1407061427171163</v>
+        <v>0.1149275030662043</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04755904441611601</v>
+        <v>0.04188853843981459</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>136</v>
+      </c>
+      <c r="J22" t="n">
+        <v>465</v>
+      </c>
+      <c r="K22" t="n">
+        <v>22.706314384757</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1242,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1418982464.005344</v>
+        <v>980988272.4957278</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1727290388328656</v>
+        <v>0.185614024357078</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0511896578570841</v>
+        <v>0.04854773739238986</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1277,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3651922378.642612</v>
+        <v>3294804046.059169</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1458195278124369</v>
+        <v>0.1219315420188922</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02479429961892511</v>
+        <v>0.02909637936351242</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>147</v>
+      </c>
+      <c r="J24" t="n">
+        <v>462</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1312,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1011215770.04372</v>
+        <v>1387992150.970837</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07676121353794002</v>
+        <v>0.09053372417042189</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02615872321066919</v>
+        <v>0.02752182498314891</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1347,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>960654694.5778555</v>
+        <v>1228324365.773643</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1069011295063914</v>
+        <v>0.1216478473744752</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03352849696984015</v>
+        <v>0.02413514236320096</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1382,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4263927126.470942</v>
+        <v>4598906904.441786</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09573931824533805</v>
+        <v>0.1201590806375864</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0170782709362457</v>
+        <v>0.02238831605709601</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>205</v>
+      </c>
+      <c r="J27" t="n">
+        <v>466</v>
+      </c>
+      <c r="K27" t="n">
+        <v>33.16224745951335</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1419,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2779756421.197152</v>
+        <v>3191425012.719133</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1005143327714086</v>
+        <v>0.147477031366384</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04769032297422063</v>
+        <v>0.03185672020582572</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>116</v>
+      </c>
+      <c r="J28" t="n">
+        <v>464</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,16 +1460,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4903818043.762613</v>
+        <v>5730418851.709011</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1242475921493818</v>
+        <v>0.1262386037804983</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03310101611791479</v>
+        <v>0.04190941091380398</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>374</v>
+      </c>
+      <c r="J29" t="n">
+        <v>465</v>
+      </c>
+      <c r="K29" t="n">
+        <v>29.97589093728366</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1491,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1886740573.0437</v>
+        <v>1935593101.990172</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1092556943807921</v>
+        <v>0.1047803516581406</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03676011563591011</v>
+        <v>0.03787289510906685</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1526,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1363756929.371946</v>
+        <v>1416227808.441779</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1090205054840014</v>
+        <v>0.1047951815112135</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04737299333966898</v>
+        <v>0.03856587087180347</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1561,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1528137631.445624</v>
+        <v>1570293944.800449</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1110697084962458</v>
+        <v>0.09120512281194361</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0296229496461331</v>
+        <v>0.03587153922895637</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1596,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2769922115.204639</v>
+        <v>2931901398.652466</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1922334399945486</v>
+        <v>0.1730953925509259</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05211265367386764</v>
+        <v>0.03871317625088458</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1631,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1562037573.341552</v>
+        <v>1259098181.226732</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1080675881502619</v>
+        <v>0.118059908562266</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02436937973276319</v>
+        <v>0.0224642460963986</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1666,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1206244277.930288</v>
+        <v>1330778164.291054</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07942652140653284</v>
+        <v>0.07670750826749473</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03395966183599973</v>
+        <v>0.03684902037252707</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1701,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2479581744.164064</v>
+        <v>2451248180.613866</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1169254608495886</v>
+        <v>0.17333484494129</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02847137125469369</v>
+        <v>0.02693388965024137</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1742,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1825067832.445025</v>
+        <v>2488723734.396971</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08466357499042919</v>
+        <v>0.1078167343099681</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02752887633025219</v>
+        <v>0.03076820936613644</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1771,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2187979258.324568</v>
+        <v>1572997635.062328</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1021744587083893</v>
+        <v>0.08234500512308487</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03926698586543391</v>
+        <v>0.02830723548866394</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1806,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1815306977.597296</v>
+        <v>1904247517.799023</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1943016481820866</v>
+        <v>0.1702788502700127</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02793935688309158</v>
+        <v>0.02714037183981806</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1847,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1243727208.168513</v>
+        <v>1109206038.090003</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1031206296241401</v>
+        <v>0.1140454538720022</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04254864050889536</v>
+        <v>0.05401747472306954</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1876,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2918787072.145105</v>
+        <v>2841747119.50833</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1627188379257122</v>
+        <v>0.1485263527214814</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03542533723170904</v>
+        <v>0.03169216580486556</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1911,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3063923428.338636</v>
+        <v>2896566667.060326</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1042352365037191</v>
+        <v>0.1108195955643738</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04334558450172651</v>
+        <v>0.03486219524520238</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>204</v>
+      </c>
+      <c r="J42" t="n">
+        <v>463</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1946,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2542886004.591205</v>
+        <v>2511777525.759079</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1799541778682349</v>
+        <v>0.1680203316695395</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01874515792447743</v>
+        <v>0.02520119147076201</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1981,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1786540845.020032</v>
+        <v>1909304816.879666</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1009719725276366</v>
+        <v>0.07109354106024839</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03535247525427353</v>
+        <v>0.02671540953559894</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2016,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1730659139.513294</v>
+        <v>1967412032.488868</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1853435270395657</v>
+        <v>0.1176122739436395</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0371605035631423</v>
+        <v>0.03414937468725312</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2051,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3815670283.014588</v>
+        <v>5313789610.57722</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1521750934017541</v>
+        <v>0.1122014189141811</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05273209334752797</v>
+        <v>0.04014144506263256</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>276</v>
+      </c>
+      <c r="J46" t="n">
+        <v>465</v>
+      </c>
+      <c r="K46" t="n">
+        <v>32.77332362299243</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2088,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4109865235.567252</v>
+        <v>4571254759.945814</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1321477307751264</v>
+        <v>0.1577004058111105</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05905755424702568</v>
+        <v>0.0527628613707385</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>210</v>
+      </c>
+      <c r="J47" t="n">
+        <v>466</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2123,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3339187282.870857</v>
+        <v>4654838708.024049</v>
       </c>
       <c r="F48" t="n">
-        <v>0.102361994604426</v>
+        <v>0.09460954538824642</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03800595675626389</v>
+        <v>0.03189760721337766</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>231</v>
+      </c>
+      <c r="J48" t="n">
+        <v>466</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2158,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1886466729.215479</v>
+        <v>1458573046.996782</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1723821924656864</v>
+        <v>0.1889051208798428</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03401658804953198</v>
+        <v>0.03432626732349042</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2193,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3219159602.137966</v>
+        <v>3224207295.530158</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1422506542986164</v>
+        <v>0.1402236827598096</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04640472787128493</v>
+        <v>0.05248609421464152</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>167</v>
+      </c>
+      <c r="J50" t="n">
+        <v>465</v>
+      </c>
+      <c r="K50" t="n">
+        <v>20.72051908498739</v>
       </c>
     </row>
     <row r="51">
@@ -1858,17 +2236,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1348056876.667178</v>
+        <v>1395636718.868569</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1336877811085986</v>
+        <v>0.1216977011277076</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03516803023191416</v>
+        <v>0.04147159322566517</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2265,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4421208295.797958</v>
+        <v>4998674464.340149</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1154885427938242</v>
+        <v>0.08661934497403316</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03971969516339163</v>
+        <v>0.05303420099193881</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>263</v>
+      </c>
+      <c r="J52" t="n">
+        <v>466</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2300,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3561042474.930019</v>
+        <v>2520620019.833987</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1659937331310591</v>
+        <v>0.2007781622002207</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03243622509052777</v>
+        <v>0.02831232949871821</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>71</v>
+      </c>
+      <c r="J53" t="n">
+        <v>457</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2335,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4537900410.201798</v>
+        <v>3516074086.671878</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1546075913174452</v>
+        <v>0.1663000847890362</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03313871956012062</v>
+        <v>0.05222125121741095</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>247</v>
+      </c>
+      <c r="J54" t="n">
+        <v>465</v>
+      </c>
+      <c r="K54" t="n">
+        <v>21.34436090354098</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2372,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4321105337.524553</v>
+        <v>3532111344.501823</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1596407772939138</v>
+        <v>0.1814081040433118</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02540927112719022</v>
+        <v>0.02443610084883321</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>230</v>
+      </c>
+      <c r="J55" t="n">
+        <v>466</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1998,17 +2413,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1805615742.004594</v>
+        <v>1497142662.443423</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1434455621720967</v>
+        <v>0.1061190598363145</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03903709742464539</v>
+        <v>0.05021936260872512</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2442,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3324055322.67957</v>
+        <v>3415473704.349807</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1266152512602599</v>
+        <v>0.1326954441804974</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02323067357947235</v>
+        <v>0.01964017357736561</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>199</v>
+      </c>
+      <c r="J57" t="n">
+        <v>466</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1709426524.481189</v>
+        <v>1230997275.946233</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2021151636274991</v>
+        <v>0.1893714595952409</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0357665349715926</v>
+        <v>0.02612867065888893</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2512,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4719308655.558134</v>
+        <v>4535972508.848303</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08887634029761896</v>
+        <v>0.09587793273612466</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03226876004337864</v>
+        <v>0.03036776739551149</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>228</v>
+      </c>
+      <c r="J59" t="n">
+        <v>466</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,22 +2547,31 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3424628511.893324</v>
+        <v>3085806674.099198</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1425769701011042</v>
+        <v>0.1342196156892201</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03027704719024383</v>
+        <v>0.03305140815552371</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>91</v>
+      </c>
+      <c r="J60" t="n">
+        <v>465</v>
+      </c>
+      <c r="K60" t="n">
+        <v>28.09344683301403</v>
       </c>
     </row>
     <row r="61">
@@ -2138,17 +2590,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2810238822.771538</v>
+        <v>2622521963.442802</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1193533743527564</v>
+        <v>0.1168621995374883</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02895111219734251</v>
+        <v>0.02894722804030564</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>412</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2619,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1948979352.635612</v>
+        <v>1304815328.02257</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1571785202168799</v>
+        <v>0.1673355041648448</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04363164472498101</v>
+        <v>0.04075107519573756</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2654,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4476763645.758155</v>
+        <v>5490901649.324667</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09919233044036568</v>
+        <v>0.09006094460351885</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04085489516642068</v>
+        <v>0.04590277018847989</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>234</v>
+      </c>
+      <c r="J63" t="n">
+        <v>465</v>
+      </c>
+      <c r="K63" t="n">
+        <v>32.0328036895302</v>
       </c>
     </row>
     <row r="64">
@@ -2216,23 +2691,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4997894374.68819</v>
+        <v>5228993220.593923</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1790101771169316</v>
+        <v>0.1891274915340221</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03246082177324068</v>
+        <v>0.02856264372103177</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>233</v>
+      </c>
+      <c r="J64" t="n">
+        <v>466</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,23 +2726,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4826892731.072907</v>
+        <v>5418393693.93463</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1235598614942597</v>
+        <v>0.1185970421012821</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02105353960515238</v>
+        <v>0.0235689660107687</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>330</v>
+      </c>
+      <c r="J65" t="n">
+        <v>466</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,22 +2761,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5337842530.357076</v>
+        <v>5648751602.786837</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1499922960969154</v>
+        <v>0.1253920763539401</v>
       </c>
       <c r="G66" t="n">
-        <v>0.047194723025486</v>
+        <v>0.03202841296688787</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>230</v>
+      </c>
+      <c r="J66" t="n">
+        <v>465</v>
+      </c>
+      <c r="K66" t="n">
+        <v>32.0286560604727</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2798,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3468413430.471138</v>
+        <v>2622189757.561877</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09900747795031085</v>
+        <v>0.06790977505699705</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04320247099043587</v>
+        <v>0.03897924491505236</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>14</v>
+      </c>
+      <c r="J67" t="n">
+        <v>456</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2833,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>6074848094.511662</v>
+        <v>5613136677.92147</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1043570881790698</v>
+        <v>0.09717625873796767</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05045441324898386</v>
+        <v>0.03214834026837315</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>253</v>
+      </c>
+      <c r="J68" t="n">
+        <v>466</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1814863496.192846</v>
+        <v>1631663380.183394</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1662035632149573</v>
+        <v>0.1593599098989154</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05540029641900828</v>
+        <v>0.0384811048737347</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2909,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2429460691.860149</v>
+        <v>3476883255.641705</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08541531964048689</v>
+        <v>0.08621066778266842</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04365237092494474</v>
+        <v>0.04781677169200675</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>68</v>
+      </c>
+      <c r="J70" t="n">
+        <v>466</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2938,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4582221115.863786</v>
+        <v>5639686967.890784</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1547240007608713</v>
+        <v>0.114648638338317</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02777989606791233</v>
+        <v>0.03279869303124529</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>317</v>
+      </c>
+      <c r="J71" t="n">
+        <v>465</v>
+      </c>
+      <c r="K71" t="n">
+        <v>31.00205715402061</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2086322568.760256</v>
+        <v>1751298425.10573</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08467906321598642</v>
+        <v>0.08525751915222927</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03239019087296616</v>
+        <v>0.03337565520252322</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3276761983.321544</v>
+        <v>3299950779.922832</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08914754506075616</v>
+        <v>0.09918790660842144</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04956513932986425</v>
+        <v>0.04895166575811855</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>37</v>
+      </c>
+      <c r="J73" t="n">
+        <v>454</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3045,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3770420684.160671</v>
+        <v>2554445247.286067</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1225024292341342</v>
+        <v>0.1720803041448476</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02643403524116863</v>
+        <v>0.02432967309086491</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>136</v>
+      </c>
+      <c r="J74" t="n">
+        <v>465</v>
+      </c>
+      <c r="K74" t="n">
+        <v>14.9187104359963</v>
       </c>
     </row>
     <row r="75">
@@ -2530,17 +3088,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2136138963.08509</v>
+        <v>2030386250.868351</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1073914541344808</v>
+        <v>0.1437824951550775</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02445870246711056</v>
+        <v>0.03233444629004626</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3117,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4270132840.970179</v>
+        <v>4954040557.432909</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1125105002677252</v>
+        <v>0.08434089337405445</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03408807095682644</v>
+        <v>0.0307389095028932</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>222</v>
+      </c>
+      <c r="J76" t="n">
+        <v>466</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2150929671.996437</v>
+        <v>2141616716.668392</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1583004215362987</v>
+        <v>0.1337280298971501</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02798503019173651</v>
+        <v>0.02976803546270445</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3187,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3845832274.658758</v>
+        <v>3237001038.5615</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1064073814949406</v>
+        <v>0.08459361904083035</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04011673267380899</v>
+        <v>0.04664605476488478</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>232</v>
+      </c>
+      <c r="J78" t="n">
+        <v>465</v>
+      </c>
+      <c r="K78" t="n">
+        <v>17.47733359232048</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1695534138.075682</v>
+        <v>1497514449.447348</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1378204785634962</v>
+        <v>0.1276614036466757</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02817202113923182</v>
+        <v>0.04011022344731821</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,17 +3265,24 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3967893224.726708</v>
+        <v>5539814044.052528</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08856123333909371</v>
+        <v>0.08458390392171837</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02414216899117782</v>
+        <v>0.02443132508930957</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>227</v>
+      </c>
+      <c r="J80" t="n">
+        <v>466</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3294,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3246849230.207785</v>
+        <v>4744330672.945288</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0913710321380799</v>
+        <v>0.09368960224668786</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03036342820900272</v>
+        <v>0.02799692917439827</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>216</v>
+      </c>
+      <c r="J81" t="n">
+        <v>466</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3329,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3556141369.524608</v>
+        <v>3495063139.832598</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1509563437749447</v>
+        <v>0.1426646883495063</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02337753585169074</v>
+        <v>0.02047690273197529</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>309</v>
+      </c>
+      <c r="J82" t="n">
+        <v>465</v>
+      </c>
+      <c r="K82" t="n">
+        <v>20.99823848779898</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1782418931.243798</v>
+        <v>2297863801.991719</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1354225970292645</v>
+        <v>0.1471969500269328</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03071547071476619</v>
+        <v>0.03864507109978276</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2292548990.94506</v>
+        <v>2015734574.479654</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08903805256028302</v>
+        <v>0.08336943538054127</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04686154865704634</v>
+        <v>0.04472570195465266</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2650698030.386288</v>
+        <v>2916903078.759053</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1542682276117113</v>
+        <v>0.18511066595666</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04129055685452324</v>
+        <v>0.05169471766404617</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>65</v>
+      </c>
+      <c r="J85" t="n">
+        <v>452</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2783216045.277287</v>
+        <v>2014618076.583224</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1329162715193647</v>
+        <v>0.1510833166089475</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02429357831751321</v>
+        <v>0.02714619591828512</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1068461626.842807</v>
+        <v>1368478362.100455</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1482509191812957</v>
+        <v>0.1838278421955321</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03531294009675095</v>
+        <v>0.04383482311655653</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3313817231.421875</v>
+        <v>2751678913.002772</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1522984485557478</v>
+        <v>0.1325990506489956</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0299151985160481</v>
+        <v>0.03525574751281633</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>61</v>
+      </c>
+      <c r="J88" t="n">
+        <v>449</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3582,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2875631348.015858</v>
+        <v>3327001192.866265</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1229949160868684</v>
+        <v>0.0969248277074122</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02926618114522766</v>
+        <v>0.02570873188233535</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>466</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1900679280.51968</v>
+        <v>1377849619.796417</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09480839827072246</v>
+        <v>0.1194342493011863</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05556145484375735</v>
+        <v>0.0429195438539899</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1701005779.279492</v>
+        <v>1949290524.785634</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1214800038113509</v>
+        <v>0.1803366156857605</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06181308120110986</v>
+        <v>0.05959766439335439</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2938998036.351602</v>
+        <v>2345616321.265026</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07682833458532375</v>
+        <v>0.09783104604618775</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0372403574713945</v>
+        <v>0.04506922025741587</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3716,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3157521890.617026</v>
+        <v>3262187220.620336</v>
       </c>
       <c r="F93" t="n">
-        <v>0.090026396632102</v>
+        <v>0.1095798581579283</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03807575304208718</v>
+        <v>0.03505244850216651</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>224</v>
+      </c>
+      <c r="J93" t="n">
+        <v>464</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1817731804.398439</v>
+        <v>2190847200.445739</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1495682161474926</v>
+        <v>0.1457562256171382</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04173866946622443</v>
+        <v>0.0394993976722984</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2971277822.66082</v>
+        <v>2164024484.680513</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1114394803531867</v>
+        <v>0.1032167979477002</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04980043097606249</v>
+        <v>0.04956140771129641</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2349967574.029402</v>
+        <v>1986554726.970125</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08695354854050914</v>
+        <v>0.1413571110620797</v>
       </c>
       <c r="G96" t="n">
-        <v>0.030669523668689</v>
+        <v>0.03524321816726849</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,16 +3862,25 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4673192151.354443</v>
+        <v>5047756263.234916</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1652222841108967</v>
+        <v>0.1610366758038387</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01888529192231419</v>
+        <v>0.02576392711929177</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>242</v>
+      </c>
+      <c r="J97" t="n">
+        <v>466</v>
+      </c>
+      <c r="K97" t="n">
+        <v>33.03672300392931</v>
       </c>
     </row>
     <row r="98">
@@ -3174,17 +3899,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2895506243.50231</v>
+        <v>3187627740.635725</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0809713066534406</v>
+        <v>0.1296350610429609</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02652698624638299</v>
+        <v>0.02391910601492585</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>117</v>
+      </c>
+      <c r="J98" t="n">
+        <v>464</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2985207879.556935</v>
+        <v>2801851319.212763</v>
       </c>
       <c r="F99" t="n">
-        <v>0.08964156447246871</v>
+        <v>0.09821451547083217</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02749291526739748</v>
+        <v>0.02879366157100673</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4058324804.448042</v>
+        <v>4644942693.521074</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1537241932344086</v>
+        <v>0.1781133924255074</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02581258561836654</v>
+        <v>0.02420621082942454</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>217</v>
+      </c>
+      <c r="J100" t="n">
+        <v>466</v>
+      </c>
+      <c r="K100" t="n">
+        <v>33.93357748022164</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3418019751.85205</v>
+        <v>2740820912.281058</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1967897330501889</v>
+        <v>0.2166728311866524</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04418168757914515</v>
+        <v>0.05559618312199911</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>46</v>
+      </c>
+      <c r="J101" t="n">
+        <v>445</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
